--- a/forms/app/fp_followup_danger_sign_check.xlsx
+++ b/forms/app/fp_followup_danger_sign_check.xlsx
@@ -13,6 +13,7 @@
     <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">survey!$A$1:$Q$40</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">survey!$D:$D</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="460">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -372,70 +373,70 @@
     <t xml:space="preserve">La femme a t-elle été référée?</t>
   </si>
   <si>
+    <t xml:space="preserve">s_woman_go_usp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did the woman go to the USP?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La femme s'est t-elle rendue à l'USP?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${s_woman_referred} = ‘yes’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_reason_not_go_usp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason for not going to the USP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raison de ne pas se rendre à l'USP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">${s_woman_go_usp} = ‘no’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when_oral_renew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format-date-time(decimal-date-time(today()+12), "%b %e, %Y")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when_injectible_renew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format-date-time(decimal-date-time(today()+60), "%b %e, %Y")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when_renew_method_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if(${fp_method} = ‘oral_combination_pill’, ${when_oral_renew}, ${when_injectible_renew})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_side_effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIDE EFFECTS CHECK 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFFETS SECONDAIRES - LISTE 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_take_pill_correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the woman been taking her pills correctly?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La femme prenait-elle correctement ses pilules? </t>
+  </si>
+  <si>
     <t xml:space="preserve">horizontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_woman_go_usp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did the woman go to the USP?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La femme s'est t-elle rendue à l'USP?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${s_woman_referred} = ‘yes’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_reason_not_go_usp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reason for not going to the USP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raison de ne pas se rendre à l'USP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">${s_woman_go_usp} = ‘no’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when_oral_renew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format-date-time(decimal-date-time(today()+12), "%b %e, %Y")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when_injectible_renew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format-date-time(decimal-date-time(today()+60), "%b %e, %Y")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when_renew_method_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(${fp_method} = ‘oral_combination_pill’, ${when_oral_renew}, ${when_injectible_renew})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_side_effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIDE EFFECTS CHECK 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EFFETS SECONDAIRES - LISTE 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_take_pill_correct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has the woman been taking her pills correctly?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La femme prenait-elle correctement ses pilules? </t>
   </si>
   <si>
     <t xml:space="preserve">${fp_method} = ‘oral_combination_pill’</t>
@@ -1358,7 +1359,25 @@
     <t xml:space="preserve">${s_woman_new_packet} = ‘yes’</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one yes_no_only</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">select_one </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">only_yes_no</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">r_have_you_refer_child</t>
@@ -1412,7 +1431,7 @@
     <t xml:space="preserve">Ne sais pas</t>
   </si>
   <si>
-    <t xml:space="preserve">yes_no_only</t>
+    <t xml:space="preserve">only_yes_no</t>
   </si>
   <si>
     <t xml:space="preserve">c_month_since_fp</t>
@@ -2117,7 +2136,57 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBF9000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7F7F7"/>
+          <bgColor rgb="FF272727"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF808000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
@@ -2238,6 +2307,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2245,10 +2318,10 @@
   </sheetPr>
   <dimension ref="A1:AS1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="F41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H127" activeCellId="0" sqref="H127"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="F56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F61" activeCellId="0" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3131,7 +3204,7 @@
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="s">
         <v>58</v>
       </c>
@@ -3170,7 +3243,7 @@
       <c r="Z23" s="17"/>
       <c r="AA23" s="17"/>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
         <v>58</v>
       </c>
@@ -3209,7 +3282,7 @@
       <c r="Z24" s="17"/>
       <c r="AA24" s="17"/>
     </row>
-    <row r="25" customFormat="false" ht="27.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="s">
         <v>58</v>
       </c>
@@ -3248,7 +3321,7 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="17"/>
     </row>
-    <row r="26" customFormat="false" ht="27.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="s">
         <v>58</v>
       </c>
@@ -3572,9 +3645,7 @@
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H34" s="19"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
@@ -3600,24 +3671,22 @@
         <v>111</v>
       </c>
       <c r="B35" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="D35" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>118</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>91</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H35" s="19"/>
       <c r="I35" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
@@ -3640,16 +3709,16 @@
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="C36" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="D36" s="17" t="s">
         <v>122</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>123</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>91</v>
@@ -3658,7 +3727,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
@@ -3684,7 +3753,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>99</v>
@@ -3703,7 +3772,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
       <c r="O37" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
@@ -3723,7 +3792,7 @@
         <v>58</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>99</v>
@@ -3742,7 +3811,7 @@
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
       <c r="O38" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P38" s="17"/>
       <c r="Q38" s="17"/>
@@ -3762,7 +3831,7 @@
         <v>58</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>99</v>
@@ -3781,7 +3850,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
       <c r="O39" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
@@ -3861,13 +3930,13 @@
         <v>17</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -3900,19 +3969,19 @@
         <v>111</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>91</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I43" s="25" t="s">
         <v>137</v>
@@ -4079,9 +4148,7 @@
       <c r="G52" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H52" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H52" s="19"/>
       <c r="I52" s="25" t="s">
         <v>170</v>
       </c>
@@ -4126,9 +4193,7 @@
       <c r="G53" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H53" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H53" s="19"/>
       <c r="I53" s="25" t="s">
         <v>170</v>
       </c>
@@ -4173,9 +4238,7 @@
       <c r="G54" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H54" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H54" s="19"/>
       <c r="I54" s="25" t="s">
         <v>170</v>
       </c>
@@ -4220,9 +4283,7 @@
       <c r="G55" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H55" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H55" s="19"/>
       <c r="I55" s="25" t="s">
         <v>170</v>
       </c>
@@ -4267,9 +4328,7 @@
       <c r="G56" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H56" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H56" s="19"/>
       <c r="I56" s="25" t="s">
         <v>170</v>
       </c>
@@ -4314,9 +4373,7 @@
       <c r="G57" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H57" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H57" s="19"/>
       <c r="I57" s="25" t="s">
         <v>170</v>
       </c>
@@ -4361,9 +4418,7 @@
       <c r="G58" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H58" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H58" s="19"/>
       <c r="I58" s="25" t="s">
         <v>170</v>
       </c>
@@ -4408,9 +4463,7 @@
       <c r="G59" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H59" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H59" s="19"/>
       <c r="I59" s="25" t="s">
         <v>170</v>
       </c>
@@ -4455,9 +4508,7 @@
       <c r="G60" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H60" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H60" s="19"/>
       <c r="I60" s="25" t="s">
         <v>170</v>
       </c>
@@ -4502,9 +4553,7 @@
       <c r="G61" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H61" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H61" s="19"/>
       <c r="I61" s="25" t="s">
         <v>170</v>
       </c>
@@ -4549,9 +4598,7 @@
       <c r="G62" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H62" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H62" s="19"/>
       <c r="I62" s="25" t="s">
         <v>170</v>
       </c>
@@ -4596,9 +4643,7 @@
       <c r="G63" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H63" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H63" s="19"/>
       <c r="I63" s="25" t="s">
         <v>170</v>
       </c>
@@ -4685,7 +4730,7 @@
         <v>175</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I65" s="30" t="s">
         <v>215</v>
@@ -4803,9 +4848,7 @@
       <c r="G68" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H68" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
@@ -4848,9 +4891,7 @@
       <c r="G69" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H69" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
@@ -4893,9 +4934,7 @@
       <c r="G70" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H70" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
@@ -4938,9 +4977,7 @@
       <c r="G71" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H71" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
@@ -4983,9 +5020,7 @@
       <c r="G72" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H72" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
@@ -5067,9 +5102,7 @@
       <c r="G74" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H74" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
@@ -5184,9 +5217,7 @@
       <c r="G77" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H77" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H77" s="19"/>
       <c r="I77" s="29"/>
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
@@ -5229,9 +5260,7 @@
       <c r="G78" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H78" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H78" s="19"/>
       <c r="I78" s="7" t="s">
         <v>248</v>
       </c>
@@ -5276,9 +5305,7 @@
       <c r="G79" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H79" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H79" s="19"/>
       <c r="I79" s="7" t="s">
         <v>252</v>
       </c>
@@ -5323,9 +5350,7 @@
       <c r="G80" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H80" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H80" s="19"/>
       <c r="I80" s="7" t="s">
         <v>256</v>
       </c>
@@ -5370,9 +5395,7 @@
       <c r="G81" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H81" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H81" s="19"/>
       <c r="I81" s="7" t="s">
         <v>260</v>
       </c>
@@ -5417,9 +5440,7 @@
       <c r="G82" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H82" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H82" s="19"/>
       <c r="I82" s="7" t="s">
         <v>264</v>
       </c>
@@ -5464,9 +5485,7 @@
       <c r="G83" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H83" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H83" s="19"/>
       <c r="I83" s="7" t="s">
         <v>268</v>
       </c>
@@ -5511,9 +5530,7 @@
       <c r="G84" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H84" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H84" s="19"/>
       <c r="I84" s="7" t="s">
         <v>272</v>
       </c>
@@ -5558,9 +5575,7 @@
       <c r="G85" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H85" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H85" s="19"/>
       <c r="I85" s="7" t="s">
         <v>276</v>
       </c>
@@ -5605,9 +5620,7 @@
       <c r="G86" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H86" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="H86" s="19"/>
       <c r="I86" s="7" t="s">
         <v>280</v>
       </c>
@@ -5948,7 +5961,7 @@
         <v>306</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I95" s="25" t="s">
         <v>307</v>
@@ -5968,7 +5981,7 @@
         <v>310</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I96" s="25" t="s">
         <v>311</v>
@@ -5992,7 +6005,7 @@
       <c r="F97" s="22"/>
       <c r="G97" s="22"/>
       <c r="H97" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I97" s="19" t="s">
         <v>314</v>
@@ -6015,7 +6028,7 @@
       <c r="F98" s="22"/>
       <c r="G98" s="22"/>
       <c r="H98" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I98" s="19" t="s">
         <v>318</v>
@@ -6038,7 +6051,7 @@
       <c r="F99" s="22"/>
       <c r="G99" s="22"/>
       <c r="H99" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I99" s="19" t="s">
         <v>320</v>
@@ -6061,7 +6074,7 @@
       <c r="F100" s="22"/>
       <c r="G100" s="22"/>
       <c r="H100" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I100" s="19" t="s">
         <v>322</v>
@@ -6084,7 +6097,7 @@
       <c r="F101" s="22"/>
       <c r="G101" s="22"/>
       <c r="H101" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I101" s="19" t="s">
         <v>324</v>
@@ -6107,7 +6120,7 @@
       <c r="F102" s="22"/>
       <c r="G102" s="22"/>
       <c r="H102" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I102" s="19" t="s">
         <v>326</v>
@@ -6130,7 +6143,7 @@
       <c r="F103" s="22"/>
       <c r="G103" s="22"/>
       <c r="H103" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I103" s="19" t="s">
         <v>329</v>
@@ -6153,7 +6166,7 @@
       <c r="F104" s="22"/>
       <c r="G104" s="22"/>
       <c r="H104" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I104" s="19" t="s">
         <v>331</v>
@@ -6176,7 +6189,7 @@
       <c r="F105" s="22"/>
       <c r="G105" s="22"/>
       <c r="H105" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I105" s="19" t="s">
         <v>334</v>
@@ -6199,7 +6212,7 @@
       <c r="F106" s="22"/>
       <c r="G106" s="22"/>
       <c r="H106" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I106" s="19" t="s">
         <v>336</v>
@@ -6222,7 +6235,7 @@
       <c r="F107" s="22"/>
       <c r="G107" s="22"/>
       <c r="H107" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I107" s="19" t="s">
         <v>339</v>
@@ -6245,7 +6258,7 @@
       <c r="F108" s="22"/>
       <c r="G108" s="22"/>
       <c r="H108" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I108" s="19" t="s">
         <v>342</v>
@@ -6268,7 +6281,7 @@
       <c r="F109" s="22"/>
       <c r="G109" s="22"/>
       <c r="H109" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I109" s="19" t="s">
         <v>344</v>
@@ -6291,7 +6304,7 @@
       <c r="F110" s="22"/>
       <c r="G110" s="22"/>
       <c r="H110" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I110" s="19" t="s">
         <v>346</v>
@@ -6314,7 +6327,7 @@
       <c r="F111" s="22"/>
       <c r="G111" s="22"/>
       <c r="H111" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I111" s="19" t="s">
         <v>348</v>
@@ -6337,7 +6350,7 @@
       <c r="F112" s="22"/>
       <c r="G112" s="22"/>
       <c r="H112" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I112" s="19" t="s">
         <v>350</v>
@@ -6360,7 +6373,7 @@
       <c r="F113" s="22"/>
       <c r="G113" s="22"/>
       <c r="H113" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I113" s="19" t="s">
         <v>353</v>
@@ -6677,7 +6690,7 @@
       </c>
       <c r="G127" s="41"/>
       <c r="H127" s="19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I127" s="40"/>
       <c r="J127" s="41"/>
@@ -6718,7 +6731,7 @@
     </row>
     <row r="128" s="48" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B128" s="44" t="s">
         <v>400</v>
@@ -7679,38 +7692,39 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <autoFilter ref="A1:Q40"/>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A26">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A18">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7721,6 +7735,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7732,7 +7747,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="H127 C14"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8040,7 +8055,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="H127 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.171875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/forms/app/fp_followup_danger_sign_check.xlsx
+++ b/forms/app/fp_followup_danger_sign_check.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="460">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -148,6 +148,9 @@
     <t xml:space="preserve">contact</t>
   </si>
   <si>
+    <t xml:space="preserve">NO_LABEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">db:person</t>
   </si>
   <si>
@@ -325,9 +328,6 @@
     <t xml:space="preserve">side_effect</t>
   </si>
   <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">if((((${s_weight} = 'yes' or ${s_lower_libido} = 'yes' or ${s_nausea} = 'yes' or ${s_headaches} = 'yes' or ${s_breast_pain} = 'yes' or ${s_abdominal_pain} = 'yes' or ${s_vertigo} = 'yes' or ${s_light_bleeding} = 'yes' or ${s_lilttle_bleeding} = 'yes' or ${s_amenorrhea} = 'yes' or ${s_dizziness} = 'yes' or ${s_pressure} = 'yes') and ${s_effect_duration} = 'more_than_3_months') or (${s_chest_pain} = 'yes' or ${s_severe_headaches} = 'yes' or ${s_strong_leg_pain} = 'yes' or ${s_abdominal_bloating} = 'yes' or ${s_abundant_bleeding} = 'yes')), 'true', 'false')</t>
   </si>
   <si>
@@ -436,7 +436,7 @@
     <t xml:space="preserve">La femme prenait-elle correctement ses pilules? </t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal</t>
+    <t xml:space="preserve">columns</t>
   </si>
   <si>
     <t xml:space="preserve">${fp_method} = ‘oral_combination_pill’</t>
@@ -2318,10 +2318,10 @@
   </sheetPr>
   <dimension ref="A1:AS1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="F56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F61" activeCellId="0" sqref="F61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="F2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2655,8 +2655,12 @@
       <c r="B8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -2683,22 +2687,22 @@
     </row>
     <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="7"/>
@@ -2708,10 +2712,10 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -2732,10 +2736,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -2768,13 +2772,13 @@
         <v>22</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -2809,13 +2813,13 @@
         <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -2848,13 +2852,13 @@
         <v>22</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -2884,7 +2888,7 @@
     </row>
     <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2915,7 +2919,7 @@
     </row>
     <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2946,13 +2950,13 @@
     </row>
     <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
@@ -2968,7 +2972,7 @@
       <c r="M16" s="13"/>
       <c r="N16" s="12"/>
       <c r="O16" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
@@ -2985,13 +2989,13 @@
     </row>
     <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
@@ -3007,7 +3011,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="12"/>
       <c r="O17" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
@@ -3024,13 +3028,13 @@
     </row>
     <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="12"/>
@@ -3044,7 +3048,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="12"/>
       <c r="O18" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
@@ -3061,10 +3065,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
@@ -3079,7 +3083,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="16"/>
       <c r="O19" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
@@ -3096,10 +3100,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
@@ -3114,7 +3118,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="16"/>
       <c r="O20" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
@@ -3131,16 +3135,16 @@
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -3150,7 +3154,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="7"/>
       <c r="O21" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -3167,16 +3171,16 @@
     </row>
     <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -3189,7 +3193,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="7"/>
       <c r="O22" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -3206,16 +3210,16 @@
     </row>
     <row r="23" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -3228,7 +3232,7 @@
       <c r="M23" s="17"/>
       <c r="N23" s="16"/>
       <c r="O23" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
@@ -3245,16 +3249,16 @@
     </row>
     <row r="24" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -3267,7 +3271,7 @@
       <c r="M24" s="17"/>
       <c r="N24" s="16"/>
       <c r="O24" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
@@ -3284,16 +3288,16 @@
     </row>
     <row r="25" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -3306,7 +3310,7 @@
       <c r="M25" s="17"/>
       <c r="N25" s="16"/>
       <c r="O25" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
@@ -3323,19 +3327,19 @@
     </row>
     <row r="26" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -3347,7 +3351,7 @@
       <c r="M26" s="17"/>
       <c r="N26" s="16"/>
       <c r="O26" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P26" s="16"/>
       <c r="Q26" s="17"/>
@@ -3364,10 +3368,10 @@
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>34</v>
@@ -3386,7 +3390,7 @@
       <c r="M27" s="19"/>
       <c r="N27" s="17"/>
       <c r="O27" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
@@ -3403,13 +3407,13 @@
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -3423,7 +3427,7 @@
       <c r="M28" s="19"/>
       <c r="N28" s="17"/>
       <c r="O28" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
@@ -3440,13 +3444,13 @@
     </row>
     <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -3477,13 +3481,13 @@
     </row>
     <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>101</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
@@ -3514,13 +3518,13 @@
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>103</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
@@ -3551,16 +3555,16 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="22"/>
@@ -3641,7 +3645,7 @@
         <v>114</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -3680,7 +3684,7 @@
         <v>117</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -3721,7 +3725,7 @@
         <v>122</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -3750,16 +3754,16 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="22"/>
@@ -3789,16 +3793,16 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="22"/>
@@ -3828,16 +3832,16 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="22"/>
@@ -3867,7 +3871,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3978,7 +3982,7 @@
         <v>135</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H43" s="19" t="s">
         <v>136</v>
@@ -4052,7 +4056,7 @@
         <v>155</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I47" s="27" t="s">
         <v>151</v>
@@ -4140,7 +4144,7 @@
         <v>173</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F52" s="22" t="s">
         <v>174</v>
@@ -4185,7 +4189,7 @@
         <v>178</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F53" s="22" t="s">
         <v>174</v>
@@ -4230,7 +4234,7 @@
         <v>181</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>174</v>
@@ -4275,7 +4279,7 @@
         <v>184</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>174</v>
@@ -4320,7 +4324,7 @@
         <v>187</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>174</v>
@@ -4365,7 +4369,7 @@
         <v>190</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>174</v>
@@ -4410,7 +4414,7 @@
         <v>193</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F58" s="22" t="s">
         <v>174</v>
@@ -4455,7 +4459,7 @@
         <v>196</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F59" s="22" t="s">
         <v>174</v>
@@ -4500,7 +4504,7 @@
         <v>199</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F60" s="22" t="s">
         <v>174</v>
@@ -4545,7 +4549,7 @@
         <v>202</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>174</v>
@@ -4590,7 +4594,7 @@
         <v>205</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F62" s="22" t="s">
         <v>174</v>
@@ -4635,7 +4639,7 @@
         <v>208</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F63" s="22" t="s">
         <v>174</v>
@@ -4668,16 +4672,16 @@
     </row>
     <row r="64" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>209</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="22"/>
@@ -4721,7 +4725,7 @@
         <v>214</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F65" s="22" t="s">
         <v>174</v>
@@ -4756,7 +4760,7 @@
     </row>
     <row r="66" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -4840,7 +4844,7 @@
         <v>221</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F68" s="22" t="s">
         <v>174</v>
@@ -4883,7 +4887,7 @@
         <v>224</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F69" s="22" t="s">
         <v>174</v>
@@ -4926,7 +4930,7 @@
         <v>227</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F70" s="22" t="s">
         <v>174</v>
@@ -4969,7 +4973,7 @@
         <v>230</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F71" s="22" t="s">
         <v>174</v>
@@ -5012,7 +5016,7 @@
         <v>233</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F72" s="22" t="s">
         <v>174</v>
@@ -5043,16 +5047,16 @@
     </row>
     <row r="73" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>234</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="22"/>
@@ -5094,7 +5098,7 @@
         <v>238</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F74" s="22" t="s">
         <v>174</v>
@@ -5125,7 +5129,7 @@
     </row>
     <row r="75" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -5209,7 +5213,7 @@
         <v>244</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F77" s="22" t="s">
         <v>174</v>
@@ -5252,7 +5256,7 @@
         <v>247</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F78" s="22" t="s">
         <v>174</v>
@@ -5297,7 +5301,7 @@
         <v>251</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F79" s="22" t="s">
         <v>174</v>
@@ -5342,7 +5346,7 @@
         <v>255</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F80" s="22" t="s">
         <v>174</v>
@@ -5387,7 +5391,7 @@
         <v>259</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F81" s="22" t="s">
         <v>174</v>
@@ -5432,7 +5436,7 @@
         <v>263</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F82" s="22" t="s">
         <v>174</v>
@@ -5477,7 +5481,7 @@
         <v>267</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F83" s="22" t="s">
         <v>174</v>
@@ -5522,7 +5526,7 @@
         <v>271</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F84" s="22" t="s">
         <v>174</v>
@@ -5567,7 +5571,7 @@
         <v>275</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F85" s="22" t="s">
         <v>174</v>
@@ -5612,7 +5616,7 @@
         <v>279</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F86" s="22" t="s">
         <v>174</v>
@@ -5645,16 +5649,16 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>281</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="22"/>
@@ -5684,7 +5688,7 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -6686,7 +6690,7 @@
         <v>399</v>
       </c>
       <c r="E127" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G127" s="41"/>
       <c r="H127" s="19" t="s">
@@ -6788,7 +6792,7 @@
     </row>
     <row r="129" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -7780,7 +7784,7 @@
         <v>405</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>406</v>
@@ -7824,7 +7828,7 @@
         <v>414</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>406</v>
